--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft\提交文档\已完成文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4ECDC-ED1C-400B-8512-D6D43F3B5DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D26861-814C-476F-B7D4-2922D3BEB848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>密级：</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -934,14 +934,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1、显示全部挂号级别(挂号id、挂号级别、挂号费用、操作栏)x轴
-2、涉及金钱采取乐观锁机制，防止数据并发
-3、操作栏编辑操作，可根据挂号的级别修改相应的挂号费用、也可查看此级别下的全部医生列表
-4、根据挂号级别名称查询挂号信息
-5、新增挂号信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>1、显示全部非药品信息x轴(药品封面、中文名称，药品规格、药品数量、药品类别(中西药)、药品单价、药品启用(按钮)、操作栏)
 2、乐观锁机制，防止数据并发
 3、药品编辑只可编辑药品名称、药品类别、药品单价，其余信息不可编辑
@@ -961,9 +953,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>△</t>
-  </si>
-  <si>
     <t>1、显示全部科室列表x轴(科室编码、科室图片、科室介绍、科室分类、科室名称、操作栏)
 2、在操作拦可对科室进行编辑，也可查看此科室下的全部医生列表
 3、点击编辑的时候，将当前点击的科室信息展示在编辑栏
@@ -971,6 +960,16 @@
 5、底部设置页码
 6、可选择科室分类并根据科室编码和科室名称进行模糊查询。
 7、不提供删除操作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>1、显示全部挂号级别(挂号id、挂号级别、挂号费用、操作栏)x轴
+2、涉及金钱采取乐观锁机制，防止数据并发
+3、操作栏编辑操作，可根据挂号的级别修改相应的挂号费用、也可查看此级别下的全部医生列表
+4、根据挂号级别名称查询挂号信息</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6291,9 +6290,9 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6474,11 +6473,17 @@
         <v>59</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
+        <v>75</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="125" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="125" t="s">
         <v>76</v>
       </c>
@@ -6509,10 +6514,18 @@
       <c r="F8" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
+      <c r="G8" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>76</v>
+      </c>
       <c r="K8" s="125"/>
       <c r="L8" s="125"/>
       <c r="M8" s="125"/>
@@ -6523,7 +6536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="84">
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="72">
       <c r="A9" s="13"/>
       <c r="B9" s="134">
         <v>4</v>
@@ -6538,7 +6551,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G9" s="125"/>
       <c r="H9" s="125"/>
@@ -6569,7 +6582,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="125"/>
       <c r="H10" s="125"/>
@@ -6600,7 +6613,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>

--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D26861-814C-476F-B7D4-2922D3BEB848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E949344-9C52-445B-98F0-16518C648CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6290,9 +6290,9 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E949344-9C52-445B-98F0-16518C648CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465AE015-B32C-4DB0-9FF3-ED67B48DD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>密级：</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -971,6 +971,9 @@
 3、操作栏编辑操作，可根据挂号的级别修改相应的挂号费用、也可查看此级别下的全部医生列表
 4、根据挂号级别名称查询挂号信息</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊药房工作站</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1809,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2259,6 +2262,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Calc Currency (0)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6290,9 +6294,9 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6724,9 +6728,15 @@
     </row>
     <row r="15" spans="1:15" s="28" customFormat="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="129">
+        <v>10</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="156" t="s">
+        <v>78</v>
+      </c>
       <c r="E15" s="83"/>
       <c r="F15" s="34"/>
       <c r="G15" s="125"/>
@@ -6741,9 +6751,15 @@
     </row>
     <row r="16" spans="1:15" s="28" customFormat="1">
       <c r="A16" s="13"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="109"/>
+      <c r="B16" s="75">
+        <v>11</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="156" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="83"/>
       <c r="F16" s="37"/>
       <c r="G16" s="125"/>

--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465AE015-B32C-4DB0-9FF3-ED67B48DD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5B9CC-A9A5-4DAB-83C7-FC920AE8ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>密级：</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -974,6 +974,27 @@
   </si>
   <si>
     <t>门诊药房工作站</t>
+  </si>
+  <si>
+    <t>患者发药</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、发药显示表格状，后面紧跟发药、查看订单详情、退药操作
+2、用户未发药状态，是不可进行退药操作，用户退药不可进行发药操作
+3、用户退药成功，点击订单详情后，可点击创建相同订单按钮，以防用户退药后悔
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发药支付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击发药后首先显示当前发药的药品信息和价钱
+2、再次点击发药，会先从后端检测前端的价格是否正确如果正确则进行发药操作
+3、进入发药支付阶段，首先我们将订单id和一个uuid24位进行绑定(加密处理)，存储到redis中，在创建一个二维码指向前端的界面，用户进行扫描可以进行支付操作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1342,7 +1363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1598,19 +1619,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1809,7 +1817,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2016,10 +2024,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2028,13 +2033,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,18 +2054,18 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2079,7 +2084,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2118,7 +2123,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,7 +2171,7 @@
     <xf numFmtId="181" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,30 +2180,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -2247,13 +2252,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,7 +2267,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Calc Currency (0)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5371,30 +5375,30 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="23.4">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="113" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="112" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="23.4">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="149"/>
+      <c r="H5" s="148"/>
     </row>
     <row r="6" spans="1:8" ht="22.2">
       <c r="A6" s="9"/>
@@ -5464,16 +5468,16 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="11"/>
@@ -5486,16 +5490,16 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1">
       <c r="A16" s="11"/>
@@ -5538,16 +5542,16 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="22.2">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1">
       <c r="A21" s="11"/>
@@ -5660,16 +5664,16 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="22.2">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1">
       <c r="A33" s="11"/>
@@ -5705,33 +5709,33 @@
       <c r="A36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="114"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="114"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="115"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="116"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1">
       <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
@@ -5852,20 +5856,20 @@
       <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="124"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A4" s="59"/>
@@ -5881,11 +5885,11 @@
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
-      <c r="P4" s="80"/>
+      <c r="P4" s="79"/>
     </row>
     <row r="5" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A5" s="59"/>
@@ -5901,11 +5905,11 @@
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="6" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A6" s="59"/>
@@ -5921,11 +5925,11 @@
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
-      <c r="P6" s="80"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A7" s="59"/>
@@ -5941,11 +5945,11 @@
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="50"/>
       <c r="O7" s="47"/>
-      <c r="P7" s="80"/>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A8" s="59"/>
@@ -5961,58 +5965,58 @@
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
-      <c r="P8" s="80"/>
-    </row>
-    <row r="9" spans="1:16" s="96" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90">
+      <c r="P8" s="79"/>
+    </row>
+    <row r="9" spans="1:16" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89">
         <v>7</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A10" s="59"/>
       <c r="B10" s="48">
         <v>8</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="45"/>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="93"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="50"/>
-      <c r="P10" s="95"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A11" s="59"/>
       <c r="B11" s="48">
         <v>9</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="45"/>
       <c r="E11" s="49"/>
       <c r="F11" s="50"/>
@@ -6021,18 +6025,18 @@
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="93"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="50"/>
-      <c r="P11" s="95"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A12" s="59"/>
       <c r="B12" s="48">
         <v>10</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="45"/>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -6041,51 +6045,51 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="93"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="92"/>
       <c r="O12" s="50"/>
-      <c r="P12" s="95"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A13" s="59"/>
       <c r="B13" s="48">
         <v>11</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="112"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="111"/>
     </row>
     <row r="14" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A14" s="59"/>
       <c r="B14" s="48">
         <v>12</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="112"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="111"/>
     </row>
     <row r="15" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A15" s="59"/>
@@ -6101,8 +6105,8 @@
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
       <c r="P15" s="52"/>
@@ -6121,8 +6125,8 @@
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="51"/>
       <c r="O16" s="51"/>
       <c r="P16" s="52"/>
@@ -6141,8 +6145,8 @@
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
       <c r="P17" s="52"/>
@@ -6161,8 +6165,8 @@
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="51"/>
       <c r="O18" s="51"/>
       <c r="P18" s="52"/>
@@ -6181,8 +6185,8 @@
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
       <c r="P19" s="52"/>
@@ -6201,8 +6205,8 @@
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="52"/>
@@ -6221,8 +6225,8 @@
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="52"/>
@@ -6241,8 +6245,8 @@
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
       <c r="P22" s="52"/>
@@ -6294,9 +6298,9 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6375,86 +6379,94 @@
       <c r="E4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="153" t="s">
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="151" t="s">
+      <c r="O4" s="150" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="32" customFormat="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="128" t="s">
+      <c r="F5" s="153"/>
+      <c r="G5" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="128" t="s">
+      <c r="H5" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="128" t="s">
+      <c r="I5" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="128" t="s">
+      <c r="L5" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="152"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="151"/>
     </row>
     <row r="6" spans="1:15" s="28" customFormat="1" ht="72">
       <c r="A6" s="13"/>
-      <c r="B6" s="134">
+      <c r="B6" s="133">
         <v>1</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="140" t="s">
+      <c r="F6" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
+      <c r="G6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="34" t="s">
         <v>68</v>
       </c>
@@ -6464,36 +6476,36 @@
     </row>
     <row r="7" spans="1:15" s="28" customFormat="1" ht="156">
       <c r="A7" s="13"/>
-      <c r="B7" s="134">
+      <c r="B7" s="133">
         <v>2</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="82" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="34" t="s">
         <v>68</v>
       </c>
@@ -6503,36 +6515,36 @@
     </row>
     <row r="8" spans="1:15" s="28" customFormat="1" ht="168">
       <c r="A8" s="13"/>
-      <c r="B8" s="134">
+      <c r="B8" s="133">
         <v>3</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="J8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
       <c r="N8" s="34" t="s">
         <v>68</v>
       </c>
@@ -6542,28 +6554,36 @@
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="72">
       <c r="A9" s="13"/>
-      <c r="B9" s="134">
+      <c r="B9" s="133">
         <v>4</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
+      <c r="G9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="34" t="s">
         <v>68</v>
       </c>
@@ -6573,28 +6593,36 @@
     </row>
     <row r="10" spans="1:15" s="28" customFormat="1" ht="132">
       <c r="A10" s="13"/>
-      <c r="B10" s="134">
+      <c r="B10" s="133">
         <v>5</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="140" t="s">
+      <c r="F10" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="G10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="34" t="s">
         <v>68</v>
       </c>
@@ -6604,28 +6632,36 @@
     </row>
     <row r="11" spans="1:15" s="28" customFormat="1" ht="180">
       <c r="A11" s="13"/>
-      <c r="B11" s="134">
+      <c r="B11" s="133">
         <v>6</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
+      <c r="G11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="34" t="s">
         <v>68</v>
       </c>
@@ -6635,28 +6671,36 @@
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" ht="72">
       <c r="A12" s="13"/>
-      <c r="B12" s="134">
+      <c r="B12" s="133">
         <v>7</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="140" t="s">
+      <c r="F12" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="G12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="34" t="s">
         <v>68</v>
       </c>
@@ -6666,28 +6710,36 @@
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="24">
       <c r="A13" s="13"/>
-      <c r="B13" s="134">
+      <c r="B13" s="133">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
+      <c r="G13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
       <c r="N13" s="34" t="s">
         <v>68</v>
       </c>
@@ -6697,28 +6749,36 @@
     </row>
     <row r="14" spans="1:15" s="28" customFormat="1" ht="120">
       <c r="A14" s="13"/>
-      <c r="B14" s="134">
+      <c r="B14" s="133">
         <v>9</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="140" t="s">
+      <c r="F14" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
+      <c r="G14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="34" t="s">
         <v>68</v>
       </c>
@@ -6726,164 +6786,196 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="28" customFormat="1">
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="84">
       <c r="A15" s="13"/>
-      <c r="B15" s="129">
+      <c r="B15" s="128">
         <v>10</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="156" t="s">
+      <c r="D15" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-    </row>
-    <row r="16" spans="1:15" s="28" customFormat="1">
+      <c r="E15" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="28" customFormat="1" ht="84">
       <c r="A16" s="13"/>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>11</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="85"/>
+      <c r="E16" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="28" customFormat="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="85"/>
+      <c r="O17" s="84"/>
     </row>
     <row r="18" spans="1:15" s="28" customFormat="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="86"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="1:15" s="28" customFormat="1">
       <c r="A19" s="13"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="87"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="85"/>
+      <c r="O19" s="84"/>
     </row>
     <row r="20" spans="1:15" s="28" customFormat="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="87"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="85"/>
+      <c r="O20" s="84"/>
     </row>
     <row r="21" spans="1:15" s="28" customFormat="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="85"/>
+      <c r="O21" s="84"/>
     </row>
     <row r="22" spans="1:15" s="28" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="38"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="78"/>
+      <c r="O22" s="77"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5B9CC-A9A5-4DAB-83C7-FC920AE8ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B131A-5279-4FAE-A9A0-A5BD52AF36C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求跟踪矩阵封面" sheetId="69" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>密级：</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -995,6 +995,22 @@
 2、再次点击发药，会先从后端检测前端的价格是否正确如果正确则进行发药操作
 3、进入发药支付阶段，首先我们将订单id和一个uuid24位进行绑定(加密处理)，存储到redis中，在创建一个二维码指向前端的界面，用户进行扫描可以进行支付操作</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加患者发药模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘竞文</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加伪支付系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5766,7 +5782,9 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
@@ -5856,33 +5874,55 @@
       <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="C3" s="116">
+        <v>44760</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>83</v>
+      </c>
       <c r="E3" s="118"/>
       <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
+      <c r="G3" s="120" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="I3" s="119">
+        <v>1</v>
+      </c>
       <c r="J3" s="119"/>
       <c r="K3" s="119"/>
       <c r="L3" s="121"/>
       <c r="M3" s="122"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="123"/>
+      <c r="N3" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="123" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="60" customFormat="1" ht="13.2">
       <c r="A4" s="59"/>
       <c r="B4" s="48">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="44">
+        <v>44761</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="50"/>
+      <c r="I4" s="50">
+        <v>1</v>
+      </c>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="L4" s="80"/>
@@ -6297,10 +6337,10 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N5"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/已完成文档/01-需求跟踪矩阵(RTM).xlsx
+++ b/已完成文档/01-需求跟踪矩阵(RTM).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B131A-5279-4FAE-A9A0-A5BD52AF36C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A54B5D-DCFE-4FB1-B091-01925B533879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="486" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求跟踪矩阵封面" sheetId="69" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>密级：</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -5355,7 +5355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
@@ -5782,7 +5782,7 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -6337,10 +6337,10 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6504,9 +6504,15 @@
       <c r="J6" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="K6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="34" t="s">
         <v>68</v>
       </c>
@@ -6543,9 +6549,15 @@
       <c r="J7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
+      <c r="K7" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="34" t="s">
         <v>68</v>
       </c>
@@ -6582,9 +6594,15 @@
       <c r="J8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
+      <c r="K8" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N8" s="34" t="s">
         <v>68</v>
       </c>
@@ -6621,9 +6639,15 @@
       <c r="J9" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
+      <c r="K9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N9" s="34" t="s">
         <v>68</v>
       </c>
@@ -6660,9 +6684,15 @@
       <c r="J10" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
+      <c r="K10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N10" s="34" t="s">
         <v>68</v>
       </c>
@@ -6699,9 +6729,15 @@
       <c r="J11" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
+      <c r="K11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N11" s="34" t="s">
         <v>68</v>
       </c>
@@ -6738,9 +6774,15 @@
       <c r="J12" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
+      <c r="K12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N12" s="34" t="s">
         <v>68</v>
       </c>
@@ -6777,9 +6819,15 @@
       <c r="J13" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
+      <c r="K13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N13" s="34" t="s">
         <v>68</v>
       </c>
@@ -6816,9 +6864,15 @@
       <c r="J14" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
+      <c r="K14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N14" s="34" t="s">
         <v>68</v>
       </c>
@@ -6855,9 +6909,15 @@
       <c r="J15" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
+      <c r="K15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N15" s="34" t="s">
         <v>68</v>
       </c>
@@ -6894,9 +6954,15 @@
       <c r="J16" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
+      <c r="K16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="124" t="s">
+        <v>76</v>
+      </c>
       <c r="N16" s="34" t="s">
         <v>68</v>
       </c>
